--- a/tmp/Blackwater Lane.converted/Blackwater Lane.converted.txt-total-recap.xlsx
+++ b/tmp/Blackwater Lane.converted/Blackwater Lane.converted.txt-total-recap.xlsx
@@ -455,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,11 +471,7 @@
       </c>
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="2" t="n"/>
-      <c r="D1" s="2" t="n"/>
-      <c r="E1" s="2" t="n"/>
-      <c r="F1" s="2" t="n"/>
-      <c r="G1" s="2" t="n"/>
-      <c r="H1" s="3" t="n"/>
+      <c r="D1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -492,37 +488,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Line count</t>
+          <t>Characters</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Word count</t>
+          <t>Blocks (50)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>All characters</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>No space</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>No punctuation</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>No space, no punctuation</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>No apostrophe</t>
+          <t>Blocks (40)</t>
         </is>
       </c>
     </row>
@@ -533,25 +509,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>552</v>
+        <v>17210</v>
       </c>
       <c r="C4" t="n">
-        <v>3432</v>
+        <v>345</v>
       </c>
       <c r="D4" t="n">
-        <v>17294</v>
-      </c>
-      <c r="E4" t="n">
-        <v>14414</v>
-      </c>
-      <c r="F4" t="n">
-        <v>16368</v>
-      </c>
-      <c r="G4" t="n">
-        <v>13488</v>
-      </c>
-      <c r="H4" t="n">
-        <v>17085</v>
+        <v>431</v>
       </c>
     </row>
     <row r="5">
@@ -561,25 +525,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>34</v>
+        <v>1395</v>
       </c>
       <c r="C5" t="n">
-        <v>265</v>
+        <v>28</v>
       </c>
       <c r="D5" t="n">
-        <v>1395</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1164</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1323</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1092</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1385</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6">
@@ -589,25 +541,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>65</v>
+        <v>1883</v>
       </c>
       <c r="C6" t="n">
-        <v>375</v>
+        <v>38</v>
       </c>
       <c r="D6" t="n">
-        <v>1890</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1580</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1774</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1464</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1871</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7">
@@ -617,25 +557,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>221</v>
+        <v>6929</v>
       </c>
       <c r="C7" t="n">
-        <v>1355</v>
+        <v>139</v>
       </c>
       <c r="D7" t="n">
-        <v>6929</v>
-      </c>
-      <c r="E7" t="n">
-        <v>5795</v>
-      </c>
-      <c r="F7" t="n">
-        <v>6503</v>
-      </c>
-      <c r="G7" t="n">
-        <v>5369</v>
-      </c>
-      <c r="H7" t="n">
-        <v>6825</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8">
@@ -645,25 +573,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>581</v>
       </c>
       <c r="C8" t="n">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="D8" t="n">
-        <v>581</v>
-      </c>
-      <c r="E8" t="n">
-        <v>485</v>
-      </c>
-      <c r="F8" t="n">
-        <v>566</v>
-      </c>
-      <c r="G8" t="n">
-        <v>470</v>
-      </c>
-      <c r="H8" t="n">
-        <v>580</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
@@ -673,25 +589,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>140</v>
+        <v>4726</v>
       </c>
       <c r="C9" t="n">
-        <v>902</v>
+        <v>95</v>
       </c>
       <c r="D9" t="n">
-        <v>4733</v>
-      </c>
-      <c r="E9" t="n">
-        <v>3971</v>
-      </c>
-      <c r="F9" t="n">
-        <v>4490</v>
-      </c>
-      <c r="G9" t="n">
-        <v>3728</v>
-      </c>
-      <c r="H9" t="n">
-        <v>4675</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10">
@@ -701,25 +605,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>30</v>
+        <v>984</v>
       </c>
       <c r="C10" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="D10" t="n">
-        <v>984</v>
-      </c>
-      <c r="E10" t="n">
-        <v>814</v>
-      </c>
-      <c r="F10" t="n">
-        <v>927</v>
-      </c>
-      <c r="G10" t="n">
-        <v>757</v>
-      </c>
-      <c r="H10" t="n">
-        <v>974</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11">
@@ -729,25 +621,13 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>70</v>
+      </c>
+      <c r="C11" t="n">
         <v>2</v>
       </c>
-      <c r="C11" t="n">
-        <v>14</v>
-      </c>
       <c r="D11" t="n">
-        <v>70</v>
-      </c>
-      <c r="E11" t="n">
-        <v>58</v>
-      </c>
-      <c r="F11" t="n">
-        <v>66</v>
-      </c>
-      <c r="G11" t="n">
-        <v>54</v>
-      </c>
-      <c r="H11" t="n">
-        <v>70</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -757,25 +637,13 @@
         </is>
       </c>
       <c r="B12" t="n">
+        <v>180</v>
+      </c>
+      <c r="C12" t="n">
         <v>4</v>
       </c>
-      <c r="C12" t="n">
-        <v>31</v>
-      </c>
       <c r="D12" t="n">
-        <v>180</v>
-      </c>
-      <c r="E12" t="n">
-        <v>153</v>
-      </c>
-      <c r="F12" t="n">
-        <v>165</v>
-      </c>
-      <c r="G12" t="n">
-        <v>138</v>
-      </c>
-      <c r="H12" t="n">
-        <v>178</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -785,25 +653,13 @@
         </is>
       </c>
       <c r="B13" t="n">
+        <v>726</v>
+      </c>
+      <c r="C13" t="n">
+        <v>15</v>
+      </c>
+      <c r="D13" t="n">
         <v>19</v>
-      </c>
-      <c r="C13" t="n">
-        <v>144</v>
-      </c>
-      <c r="D13" t="n">
-        <v>726</v>
-      </c>
-      <c r="E13" t="n">
-        <v>601</v>
-      </c>
-      <c r="F13" t="n">
-        <v>690</v>
-      </c>
-      <c r="G13" t="n">
-        <v>565</v>
-      </c>
-      <c r="H13" t="n">
-        <v>713</v>
       </c>
     </row>
     <row r="14">
@@ -813,25 +669,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>91</v>
+        <v>3202</v>
       </c>
       <c r="C14" t="n">
-        <v>611</v>
+        <v>65</v>
       </c>
       <c r="D14" t="n">
-        <v>3231</v>
-      </c>
-      <c r="E14" t="n">
-        <v>2711</v>
-      </c>
-      <c r="F14" t="n">
-        <v>3080</v>
-      </c>
-      <c r="G14" t="n">
-        <v>2560</v>
-      </c>
-      <c r="H14" t="n">
-        <v>3197</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15">
@@ -841,25 +685,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>24</v>
+        <v>132</v>
       </c>
       <c r="C15" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
-        <v>132</v>
-      </c>
-      <c r="E15" t="n">
-        <v>132</v>
-      </c>
-      <c r="F15" t="n">
-        <v>96</v>
-      </c>
-      <c r="G15" t="n">
-        <v>96</v>
-      </c>
-      <c r="H15" t="n">
-        <v>132</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
@@ -869,25 +701,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C16" t="n">
         <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>12</v>
-      </c>
-      <c r="E16" t="n">
-        <v>12</v>
-      </c>
-      <c r="F16" t="n">
-        <v>9</v>
-      </c>
-      <c r="G16" t="n">
-        <v>9</v>
-      </c>
-      <c r="H16" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -897,25 +717,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>4</v>
+        <v>108</v>
       </c>
       <c r="C17" t="n">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
-        <v>108</v>
-      </c>
-      <c r="E17" t="n">
-        <v>90</v>
-      </c>
-      <c r="F17" t="n">
-        <v>102</v>
-      </c>
-      <c r="G17" t="n">
-        <v>84</v>
-      </c>
-      <c r="H17" t="n">
-        <v>108</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18">
@@ -925,25 +733,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="C18" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>90</v>
-      </c>
-      <c r="E18" t="n">
-        <v>75</v>
-      </c>
-      <c r="F18" t="n">
-        <v>88</v>
-      </c>
-      <c r="G18" t="n">
-        <v>73</v>
-      </c>
-      <c r="H18" t="n">
-        <v>90</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
@@ -953,25 +749,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>20</v>
+        <v>681</v>
       </c>
       <c r="C19" t="n">
-        <v>138</v>
+        <v>14</v>
       </c>
       <c r="D19" t="n">
-        <v>681</v>
-      </c>
-      <c r="E19" t="n">
-        <v>563</v>
-      </c>
-      <c r="F19" t="n">
-        <v>657</v>
-      </c>
-      <c r="G19" t="n">
-        <v>539</v>
-      </c>
-      <c r="H19" t="n">
-        <v>675</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20">
@@ -981,25 +765,13 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>355</v>
+      </c>
+      <c r="C20" t="n">
+        <v>8</v>
+      </c>
+      <c r="D20" t="n">
         <v>9</v>
-      </c>
-      <c r="C20" t="n">
-        <v>59</v>
-      </c>
-      <c r="D20" t="n">
-        <v>355</v>
-      </c>
-      <c r="E20" t="n">
-        <v>305</v>
-      </c>
-      <c r="F20" t="n">
-        <v>342</v>
-      </c>
-      <c r="G20" t="n">
-        <v>292</v>
-      </c>
-      <c r="H20" t="n">
-        <v>351</v>
       </c>
     </row>
     <row r="21">
@@ -1009,25 +781,13 @@
         </is>
       </c>
       <c r="B21" t="n">
+        <v>113</v>
+      </c>
+      <c r="C21" t="n">
         <v>3</v>
       </c>
-      <c r="C21" t="n">
-        <v>24</v>
-      </c>
       <c r="D21" t="n">
-        <v>113</v>
-      </c>
-      <c r="E21" t="n">
-        <v>92</v>
-      </c>
-      <c r="F21" t="n">
-        <v>103</v>
-      </c>
-      <c r="G21" t="n">
-        <v>82</v>
-      </c>
-      <c r="H21" t="n">
-        <v>112</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22">
@@ -1037,25 +797,13 @@
         </is>
       </c>
       <c r="B22" t="n">
+        <v>32</v>
+      </c>
+      <c r="C22" t="n">
         <v>1</v>
       </c>
-      <c r="C22" t="n">
-        <v>6</v>
-      </c>
       <c r="D22" t="n">
-        <v>32</v>
-      </c>
-      <c r="E22" t="n">
-        <v>27</v>
-      </c>
-      <c r="F22" t="n">
-        <v>29</v>
-      </c>
-      <c r="G22" t="n">
-        <v>24</v>
-      </c>
-      <c r="H22" t="n">
-        <v>32</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1065,25 +813,13 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>411</v>
+      </c>
+      <c r="C23" t="n">
         <v>9</v>
       </c>
-      <c r="C23" t="n">
-        <v>80</v>
-      </c>
       <c r="D23" t="n">
-        <v>411</v>
-      </c>
-      <c r="E23" t="n">
-        <v>340</v>
-      </c>
-      <c r="F23" t="n">
-        <v>396</v>
-      </c>
-      <c r="G23" t="n">
-        <v>325</v>
-      </c>
-      <c r="H23" t="n">
-        <v>409</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24">
@@ -1093,31 +829,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>51</v>
+        <v>842</v>
       </c>
       <c r="C24" t="n">
-        <v>184</v>
+        <v>17</v>
       </c>
       <c r="D24" t="n">
-        <v>842</v>
-      </c>
-      <c r="E24" t="n">
-        <v>709</v>
-      </c>
-      <c r="F24" t="n">
-        <v>834</v>
-      </c>
-      <c r="G24" t="n">
-        <v>701</v>
-      </c>
-      <c r="H24" t="n">
-        <v>824</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/tmp/Blackwater Lane.converted/Blackwater Lane.converted.txt-total-recap.xlsx
+++ b/tmp/Blackwater Lane.converted/Blackwater Lane.converted.txt-total-recap.xlsx
@@ -455,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,8 +470,7 @@
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
-      <c r="C1" s="2" t="n"/>
-      <c r="D1" s="3" t="n"/>
+      <c r="C1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -496,11 +495,6 @@
           <t>Blocks (50)</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Blocks (40)</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -514,9 +508,6 @@
       <c r="C4" t="n">
         <v>345</v>
       </c>
-      <c r="D4" t="n">
-        <v>431</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -530,9 +521,6 @@
       <c r="C5" t="n">
         <v>28</v>
       </c>
-      <c r="D5" t="n">
-        <v>35</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -546,9 +534,6 @@
       <c r="C6" t="n">
         <v>38</v>
       </c>
-      <c r="D6" t="n">
-        <v>48</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -562,9 +547,6 @@
       <c r="C7" t="n">
         <v>139</v>
       </c>
-      <c r="D7" t="n">
-        <v>174</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -578,9 +560,6 @@
       <c r="C8" t="n">
         <v>12</v>
       </c>
-      <c r="D8" t="n">
-        <v>15</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -594,9 +573,6 @@
       <c r="C9" t="n">
         <v>95</v>
       </c>
-      <c r="D9" t="n">
-        <v>119</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -610,9 +586,6 @@
       <c r="C10" t="n">
         <v>20</v>
       </c>
-      <c r="D10" t="n">
-        <v>25</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -626,9 +599,6 @@
       <c r="C11" t="n">
         <v>2</v>
       </c>
-      <c r="D11" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -642,9 +612,6 @@
       <c r="C12" t="n">
         <v>4</v>
       </c>
-      <c r="D12" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -658,9 +625,6 @@
       <c r="C13" t="n">
         <v>15</v>
       </c>
-      <c r="D13" t="n">
-        <v>19</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -674,9 +638,6 @@
       <c r="C14" t="n">
         <v>65</v>
       </c>
-      <c r="D14" t="n">
-        <v>81</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -690,9 +651,6 @@
       <c r="C15" t="n">
         <v>3</v>
       </c>
-      <c r="D15" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -706,9 +664,6 @@
       <c r="C16" t="n">
         <v>1</v>
       </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -722,9 +677,6 @@
       <c r="C17" t="n">
         <v>3</v>
       </c>
-      <c r="D17" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -738,9 +690,6 @@
       <c r="C18" t="n">
         <v>2</v>
       </c>
-      <c r="D18" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -754,9 +703,6 @@
       <c r="C19" t="n">
         <v>14</v>
       </c>
-      <c r="D19" t="n">
-        <v>18</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -770,9 +716,6 @@
       <c r="C20" t="n">
         <v>8</v>
       </c>
-      <c r="D20" t="n">
-        <v>9</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -786,9 +729,6 @@
       <c r="C21" t="n">
         <v>3</v>
       </c>
-      <c r="D21" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -802,9 +742,6 @@
       <c r="C22" t="n">
         <v>1</v>
       </c>
-      <c r="D22" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -818,9 +755,6 @@
       <c r="C23" t="n">
         <v>9</v>
       </c>
-      <c r="D23" t="n">
-        <v>11</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -834,14 +768,11 @@
       <c r="C24" t="n">
         <v>17</v>
       </c>
-      <c r="D24" t="n">
-        <v>22</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
